--- a/CarCounterSystem/rfid_carNum.xlsx
+++ b/CarCounterSystem/rfid_carNum.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView windowWidth="14855" windowHeight="8675" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -28,6 +28,30 @@
     <t>GX262</t>
   </si>
   <si>
+    <t>68359891</t>
+  </si>
+  <si>
+    <t>GX376</t>
+  </si>
+  <si>
+    <t>68359908</t>
+  </si>
+  <si>
+    <t>GX070</t>
+  </si>
+  <si>
+    <t>68359936</t>
+  </si>
+  <si>
+    <t>GX002</t>
+  </si>
+  <si>
+    <t>68359937</t>
+  </si>
+  <si>
+    <t>GX001</t>
+  </si>
+  <si>
     <t>68359889</t>
   </si>
   <si>
@@ -38,54 +62,373 @@
   </si>
   <si>
     <t>GX358</t>
-  </si>
-  <si>
-    <t>68359891</t>
-  </si>
-  <si>
-    <t>GX376</t>
-  </si>
-  <si>
-    <t>68359908</t>
-  </si>
-  <si>
-    <t>GX070</t>
-  </si>
-  <si>
-    <t>68359936</t>
-  </si>
-  <si>
-    <t>GX002</t>
-  </si>
-  <si>
-    <t>68359937</t>
-  </si>
-  <si>
-    <t>GX001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,18 +436,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -151,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -186,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -360,22 +997,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -443,5 +1077,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/CarCounterSystem/rfid_carNum.xlsx
+++ b/CarCounterSystem/rfid_carNum.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasee\Desktop\矿车计数后端\CarCounterSystem\CarCounterSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>rfid</t>
   </si>
@@ -27,64 +22,598 @@
     <t>carNum</t>
   </si>
   <si>
-    <t>68359886</t>
-  </si>
-  <si>
-    <t>GX262</t>
-  </si>
-  <si>
-    <t>68359889</t>
-  </si>
-  <si>
-    <t>GX519</t>
-  </si>
-  <si>
-    <t>68359890</t>
-  </si>
-  <si>
-    <t>GX358</t>
-  </si>
-  <si>
-    <t>68359891</t>
-  </si>
-  <si>
-    <t>GX376</t>
-  </si>
-  <si>
-    <t>68359908</t>
-  </si>
-  <si>
-    <t>GX070</t>
-  </si>
-  <si>
-    <t>68359936</t>
-  </si>
-  <si>
-    <t>GX002</t>
-  </si>
-  <si>
-    <t>68359937</t>
-  </si>
-  <si>
-    <t>GX001</t>
+    <t>68350005</t>
+  </si>
+  <si>
+    <t>623#</t>
+  </si>
+  <si>
+    <t>68359162</t>
+  </si>
+  <si>
+    <t>889#</t>
+  </si>
+  <si>
+    <t>68359163</t>
+  </si>
+  <si>
+    <t>890#</t>
+  </si>
+  <si>
+    <t>68359164</t>
+  </si>
+  <si>
+    <t>891#</t>
+  </si>
+  <si>
+    <t>68359348</t>
+  </si>
+  <si>
+    <t>561#</t>
+  </si>
+  <si>
+    <t>68359873</t>
+  </si>
+  <si>
+    <t>062#</t>
+  </si>
+  <si>
+    <t>68359874</t>
+  </si>
+  <si>
+    <t>711#</t>
+  </si>
+  <si>
+    <t>68359875</t>
+  </si>
+  <si>
+    <t>322#</t>
+  </si>
+  <si>
+    <t>68359876</t>
+  </si>
+  <si>
+    <t>531#</t>
+  </si>
+  <si>
+    <t>68359877</t>
+  </si>
+  <si>
+    <t>532#</t>
+  </si>
+  <si>
+    <t>68359878</t>
+  </si>
+  <si>
+    <t>533#</t>
+  </si>
+  <si>
+    <t>68359879</t>
+  </si>
+  <si>
+    <t>713#</t>
+  </si>
+  <si>
+    <t>68359881</t>
+  </si>
+  <si>
+    <t>705#</t>
+  </si>
+  <si>
+    <t>68359882</t>
+  </si>
+  <si>
+    <t>755#</t>
+  </si>
+  <si>
+    <t>68359883</t>
+  </si>
+  <si>
+    <t>071#</t>
+  </si>
+  <si>
+    <t>68359884</t>
+  </si>
+  <si>
+    <t>065#</t>
+  </si>
+  <si>
+    <t>68359885</t>
+  </si>
+  <si>
+    <t>067#</t>
+  </si>
+  <si>
+    <t>68359887</t>
+  </si>
+  <si>
+    <t>069#</t>
+  </si>
+  <si>
+    <t>68359888</t>
+  </si>
+  <si>
+    <t>361#</t>
+  </si>
+  <si>
+    <t>68359928</t>
+  </si>
+  <si>
+    <t>625#</t>
+  </si>
+  <si>
+    <t>68359929</t>
+  </si>
+  <si>
+    <t>733#</t>
+  </si>
+  <si>
+    <t>68359931</t>
+  </si>
+  <si>
+    <t>353#</t>
+  </si>
+  <si>
+    <t>68359932</t>
+  </si>
+  <si>
+    <t>592#</t>
+  </si>
+  <si>
+    <t>68359933</t>
+  </si>
+  <si>
+    <t>066#</t>
+  </si>
+  <si>
+    <t>68359934</t>
+  </si>
+  <si>
+    <t>100#</t>
+  </si>
+  <si>
+    <t>68359939</t>
+  </si>
+  <si>
+    <t>001#</t>
+  </si>
+  <si>
+    <t>68359940</t>
+  </si>
+  <si>
+    <t>003#</t>
+  </si>
+  <si>
+    <t>68359941</t>
+  </si>
+  <si>
+    <t>002#</t>
+  </si>
+  <si>
+    <t>68359944</t>
+  </si>
+  <si>
+    <t>063#</t>
+  </si>
+  <si>
+    <t>68359945</t>
+  </si>
+  <si>
+    <t>672#</t>
+  </si>
+  <si>
+    <t>68359947</t>
+  </si>
+  <si>
+    <t>535#</t>
+  </si>
+  <si>
+    <t>68359949</t>
+  </si>
+  <si>
+    <t>732#</t>
+  </si>
+  <si>
+    <t>68359952</t>
+  </si>
+  <si>
+    <t>715#</t>
+  </si>
+  <si>
+    <t>68359953</t>
+  </si>
+  <si>
+    <t>695#</t>
+  </si>
+  <si>
+    <t>68359954</t>
+  </si>
+  <si>
+    <t>703#</t>
+  </si>
+  <si>
+    <t>68359955</t>
+  </si>
+  <si>
+    <t>615#</t>
+  </si>
+  <si>
+    <t>68359956</t>
+  </si>
+  <si>
+    <t>722#</t>
+  </si>
+  <si>
+    <t>68359957</t>
+  </si>
+  <si>
+    <t>312#</t>
+  </si>
+  <si>
+    <t>68359958</t>
+  </si>
+  <si>
+    <t>051#</t>
+  </si>
+  <si>
+    <t>68359959</t>
+  </si>
+  <si>
+    <t>721#</t>
+  </si>
+  <si>
+    <t>68359960</t>
+  </si>
+  <si>
+    <t>117#</t>
+  </si>
+  <si>
+    <t>68359961</t>
+  </si>
+  <si>
+    <t>612#</t>
+  </si>
+  <si>
+    <t>68359963</t>
+  </si>
+  <si>
+    <t>693#</t>
+  </si>
+  <si>
+    <t>68359964</t>
+  </si>
+  <si>
+    <t>735#</t>
+  </si>
+  <si>
+    <t>68359966</t>
+  </si>
+  <si>
+    <t>113#</t>
+  </si>
+  <si>
+    <t>68359967</t>
+  </si>
+  <si>
+    <t>692#</t>
+  </si>
+  <si>
+    <t>68359969</t>
+  </si>
+  <si>
+    <t>763#</t>
+  </si>
+  <si>
+    <t>68359970</t>
+  </si>
+  <si>
+    <t>701#</t>
+  </si>
+  <si>
+    <t>68359971</t>
+  </si>
+  <si>
+    <t>702#</t>
+  </si>
+  <si>
+    <t>68359972</t>
+  </si>
+  <si>
+    <t>593#</t>
+  </si>
+  <si>
+    <t>68359973</t>
+  </si>
+  <si>
+    <t>315#</t>
+  </si>
+  <si>
+    <t>68359974</t>
+  </si>
+  <si>
+    <t>731#</t>
+  </si>
+  <si>
+    <t>68359975</t>
+  </si>
+  <si>
+    <t>591#</t>
+  </si>
+  <si>
+    <t>68359977</t>
+  </si>
+  <si>
+    <t>055#</t>
+  </si>
+  <si>
+    <t>68359978</t>
+  </si>
+  <si>
+    <t>070#</t>
+  </si>
+  <si>
+    <t>68359979</t>
+  </si>
+  <si>
+    <t>712#</t>
+  </si>
+  <si>
+    <t>68359980</t>
+  </si>
+  <si>
+    <t>565#</t>
+  </si>
+  <si>
+    <t>68359981</t>
+  </si>
+  <si>
+    <t>613#</t>
+  </si>
+  <si>
+    <t>68359982</t>
+  </si>
+  <si>
+    <t>611#</t>
+  </si>
+  <si>
+    <t>68359983</t>
+  </si>
+  <si>
+    <t>635#</t>
+  </si>
+  <si>
+    <t>68359984</t>
+  </si>
+  <si>
+    <t>753#</t>
+  </si>
+  <si>
+    <t>68359985</t>
+  </si>
+  <si>
+    <t>765#</t>
+  </si>
+  <si>
+    <t>68359988</t>
+  </si>
+  <si>
+    <t>118#</t>
+  </si>
+  <si>
+    <t>68359989</t>
+  </si>
+  <si>
+    <t>097#</t>
+  </si>
+  <si>
+    <t>68359990</t>
+  </si>
+  <si>
+    <t>112#</t>
+  </si>
+  <si>
+    <t>68359991</t>
+  </si>
+  <si>
+    <t>060#</t>
+  </si>
+  <si>
+    <t>68359992</t>
+  </si>
+  <si>
+    <t>059#</t>
+  </si>
+  <si>
+    <t>68359993</t>
+  </si>
+  <si>
+    <t>723#</t>
+  </si>
+  <si>
+    <t>68359994</t>
+  </si>
+  <si>
+    <t>061#</t>
+  </si>
+  <si>
+    <t>68359995</t>
+  </si>
+  <si>
+    <t>725#</t>
+  </si>
+  <si>
+    <t>68359996</t>
+  </si>
+  <si>
+    <t>050#</t>
+  </si>
+  <si>
+    <t>68359997</t>
+  </si>
+  <si>
+    <t>068#</t>
+  </si>
+  <si>
+    <t>68359998</t>
+  </si>
+  <si>
+    <t>052#</t>
+  </si>
+  <si>
+    <t>68359999</t>
+  </si>
+  <si>
+    <t>053#</t>
+  </si>
+  <si>
+    <t>68360000</t>
+  </si>
+  <si>
+    <t>056#</t>
+  </si>
+  <si>
+    <t>68360001</t>
+  </si>
+  <si>
+    <t>057#</t>
+  </si>
+  <si>
+    <t>68360002</t>
+  </si>
+  <si>
+    <t>058#</t>
+  </si>
+  <si>
+    <t>68360003</t>
+  </si>
+  <si>
+    <t>675#</t>
+  </si>
+  <si>
+    <t>68360004</t>
+  </si>
+  <si>
+    <t>751#</t>
+  </si>
+  <si>
+    <t>68360005</t>
+  </si>
+  <si>
+    <t>761#</t>
+  </si>
+  <si>
+    <t>68360006</t>
+  </si>
+  <si>
+    <t>762#</t>
+  </si>
+  <si>
+    <t>68360007</t>
+  </si>
+  <si>
+    <t>673#</t>
+  </si>
+  <si>
+    <t>68360008</t>
+  </si>
+  <si>
+    <t>671#</t>
+  </si>
+  <si>
+    <t>68360009</t>
+  </si>
+  <si>
+    <t>393#</t>
+  </si>
+  <si>
+    <t>68360010</t>
+  </si>
+  <si>
+    <t>392#</t>
+  </si>
+  <si>
+    <t>68360011</t>
+  </si>
+  <si>
+    <t>391#</t>
+  </si>
+  <si>
+    <t>68360012</t>
+  </si>
+  <si>
+    <t>395#</t>
+  </si>
+  <si>
+    <t>68360013</t>
+  </si>
+  <si>
+    <t>752#</t>
+  </si>
+  <si>
+    <t>68360014</t>
+  </si>
+  <si>
+    <t>355#</t>
+  </si>
+  <si>
+    <t>68360015</t>
+  </si>
+  <si>
+    <t>311#</t>
+  </si>
+  <si>
+    <t>68360016</t>
+  </si>
+  <si>
+    <t>321#</t>
+  </si>
+  <si>
+    <t>68360017</t>
+  </si>
+  <si>
+    <t>323#</t>
+  </si>
+  <si>
+    <t>68360018</t>
+  </si>
+  <si>
+    <t>098#</t>
+  </si>
+  <si>
+    <t>68360019</t>
+  </si>
+  <si>
+    <t>099#</t>
+  </si>
+  <si>
+    <t>68360021</t>
+  </si>
+  <si>
+    <t>563#</t>
+  </si>
+  <si>
+    <t>68360022</t>
+  </si>
+  <si>
+    <t>562#</t>
+  </si>
+  <si>
+    <t>68360361</t>
+  </si>
+  <si>
+    <t>331#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,25 +637,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -173,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -208,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -383,18 +901,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -461,16 +982,726 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>68359162</v>
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>